--- a/UI validation.xlsx
+++ b/UI validation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Page Name</t>
   </si>
@@ -34,10 +34,10 @@
     <t>sort</t>
   </si>
   <si>
-    <t>restaurants sorted by rating</t>
-  </si>
-  <si>
-    <t>restaurants sorted by location</t>
+    <t>restaurants sorted by mood</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>tweetsAnalyzed</t>
@@ -49,24 +49,9 @@
     <t>parse through users tweets</t>
   </si>
   <si>
-    <t>statusesAnalyzed</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>parse through users facebook</t>
-  </si>
-  <si>
     <t>pastRecommendations</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>5 stars appear for user rating</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -74,12 +59,6 @@
   </si>
   <si>
     <t>register</t>
-  </si>
-  <si>
-    <t>connect facebook</t>
-  </si>
-  <si>
-    <t>logs user in through their facebook</t>
   </si>
   <si>
     <t>connect twitter</t>
@@ -130,7 +109,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,7 +120,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="25.57"/>
+    <col customWidth="1" min="3" max="3" width="33.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -171,83 +150,66 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
